--- a/PolarReport/TestData/2016/March/report_JoeDoe.xlsx
+++ b/PolarReport/TestData/2016/March/report_JoeDoe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PolarWise\PolarWise\TestData\2016\March\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PolarReport\PolarReport\TestData\2016\March\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="9960" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22152" windowHeight="9960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yleistiedot" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Kuukausi-ilmoitus'!$2:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Yleistiedot!$5:$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="44">
   <si>
     <t>Yritys</t>
   </si>
@@ -148,19 +148,34 @@
     <t>joe.doe@a-company.com</t>
   </si>
   <si>
-    <t>COFFEE MACHINE CORP</t>
+    <t>OFFICE TASKS</t>
   </si>
   <si>
-    <t>LEMON INTERNATIONAL</t>
+    <t>Saldo</t>
   </si>
   <si>
-    <t>OFFICE TASKS</t>
+    <t>Edell. kk kertymä</t>
+  </si>
+  <si>
+    <t>Muu poissaolo</t>
+  </si>
+  <si>
+    <t>Sairasloma</t>
+  </si>
+  <si>
+    <t>Loma</t>
+  </si>
+  <si>
+    <t>COFFEE MACHINES INC, ELECTRIC DRAWING</t>
+  </si>
+  <si>
+    <t>LEMON FRUITS CO, PROGRAMMING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; €&quot;"/>
     <numFmt numFmtId="165" formatCode="mmmm\ yyyy"/>
@@ -168,7 +183,7 @@
     <numFmt numFmtId="167" formatCode="dd\.mm"/>
     <numFmt numFmtId="168" formatCode="#,##0&quot; €&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -298,8 +313,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +367,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="62">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1082,13 +1113,238 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="double">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="double">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="double">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1455,6 +1711,221 @@
     </xf>
     <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1497,84 +1968,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1624,6 +2025,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1714,15 +2124,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1730,7 +2131,7 @@
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
     <cellStyle name="Otsikko 1 1" xfId="2"/>
   </cellStyles>
-  <dxfs count="185">
+  <dxfs count="184">
     <dxf>
       <font>
         <b val="0"/>
@@ -3776,23 +4177,30 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="27"/>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <sz val="12"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="41"/>
+          <bgColor indexed="27"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4694,32 +5102,32 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1"/>
-    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.6640625" style="1"/>
+    <col min="2" max="2" width="2.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="1"/>
+    <col min="7" max="7" width="13.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="11" t="s">
         <v>0</v>
@@ -4727,7 +5135,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="13" t="s">
         <v>1</v>
@@ -4737,7 +5145,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="13" t="s">
         <v>2</v>
@@ -4745,7 +5153,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="11" t="s">
         <v>3</v>
@@ -4755,7 +5163,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="11" t="s">
         <v>4</v>
@@ -4765,7 +5173,7 @@
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -4773,7 +5181,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="11" t="s">
         <v>6</v>
@@ -4781,7 +5189,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="11" t="s">
         <v>7</v>
@@ -4789,7 +5197,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="11" t="s">
         <v>8</v>
@@ -4797,7 +5205,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="11" t="s">
         <v>9</v>
@@ -4805,7 +5213,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="11" t="s">
         <v>10</v>
@@ -4813,7 +5221,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="11" t="s">
         <v>11</v>
@@ -4821,19 +5229,19 @@
       <c r="D15" s="17"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="18"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D18" s="23"/>
     </row>
   </sheetData>
@@ -4853,64 +5261,64 @@
   <sheetPr codeName="Taul2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AQ117"/>
+  <dimension ref="B1:AQ121"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showOutlineSymbols="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
     <col min="8" max="23" width="4" style="1" customWidth="1"/>
-    <col min="24" max="24" width="3.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.90625" style="1" customWidth="1"/>
     <col min="25" max="38" width="4" style="1" customWidth="1"/>
     <col min="39" max="39" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="6.33203125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="8.5546875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="9.6640625" style="1"/>
-    <col min="43" max="43" width="9.6640625" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.6640625" style="1"/>
+    <col min="40" max="40" width="6.36328125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="8.54296875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="9.6328125" style="1"/>
+    <col min="43" max="43" width="9.6328125" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="9.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:43" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:43" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="207">
+    <row r="1" spans="2:43" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:43" ht="28.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="253">
         <f>Yleistiedot!D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="25"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="188">
+      <c r="M2" s="234">
         <f>H7</f>
         <v>42430</v>
       </c>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="234"/>
+      <c r="U2" s="234"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="234"/>
+      <c r="Y2" s="234"/>
       <c r="Z2" s="24"/>
       <c r="AA2" s="24"/>
       <c r="AB2" s="24"/>
@@ -4928,38 +5336,38 @@
       <c r="AN2" s="24"/>
       <c r="AO2" s="26">
         <f ca="1">TODAY()</f>
-        <v>42484</v>
+        <v>42488</v>
       </c>
       <c r="AP2" s="27"/>
     </row>
-    <row r="3" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="180" t="str">
+    <row r="3" spans="2:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="226" t="str">
         <f>Yleistiedot!D7</f>
         <v>Joe Doe</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
       <c r="Z3" s="29"/>
       <c r="AA3" s="30"/>
       <c r="AB3" s="30"/>
@@ -4978,28 +5386,28 @@
       <c r="AO3" s="31"/>
       <c r="AP3" s="27"/>
     </row>
-    <row r="4" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="205" t="str">
+    <row r="4" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="251" t="str">
         <f>Yleistiedot!D8</f>
         <v>joe.doe@a-company.com</v>
       </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="189"/>
-      <c r="S4" s="189"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="189"/>
-      <c r="V4" s="189"/>
-      <c r="W4" s="189"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="189"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="235"/>
+      <c r="P4" s="235"/>
+      <c r="Q4" s="235"/>
+      <c r="R4" s="235"/>
+      <c r="S4" s="235"/>
+      <c r="T4" s="235"/>
+      <c r="U4" s="235"/>
+      <c r="V4" s="235"/>
+      <c r="W4" s="235"/>
+      <c r="X4" s="235"/>
+      <c r="Y4" s="235"/>
       <c r="Z4" s="29"/>
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
@@ -5010,12 +5418,12 @@
       <c r="AO4" s="56"/>
       <c r="AP4" s="27"/>
     </row>
-    <row r="5" spans="2:43" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="183"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="185"/>
+    <row r="5" spans="2:43" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="229"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
       <c r="G5" s="35"/>
       <c r="H5" s="126">
         <f>IF(H8="Su",1,IF(H8="La",1,0))</f>
@@ -5146,19 +5554,19 @@
       <c r="AO5" s="37"/>
       <c r="AP5" s="27"/>
     </row>
-    <row r="6" spans="2:43" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="196" t="s">
+    <row r="6" spans="2:43" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="190" t="s">
+      <c r="C6" s="243"/>
+      <c r="D6" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="191"/>
-      <c r="F6" s="202" t="s">
+      <c r="E6" s="237"/>
+      <c r="F6" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="167"/>
+      <c r="G6" s="210"/>
       <c r="H6" s="38" t="s">
         <v>13</v>
       </c>
@@ -5199,13 +5607,13 @@
       <c r="AO6" s="44"/>
       <c r="AP6" s="27"/>
     </row>
-    <row r="7" spans="2:43" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="198"/>
-      <c r="C7" s="199"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="167"/>
+    <row r="7" spans="2:43" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="244"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="210"/>
       <c r="H7" s="45">
         <f>Yleistiedot!D5</f>
         <v>42430</v>
@@ -5342,13 +5750,13 @@
       </c>
       <c r="AP7" s="27"/>
     </row>
-    <row r="8" spans="2:43" ht="12.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="198"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="167"/>
+    <row r="8" spans="2:43" ht="12.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="244"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="210"/>
       <c r="H8" s="47" t="str">
         <f t="shared" ref="H8:AM8" si="2">IF(MOD(WEEKDAY(H7)+5,7)=0,"Ma",IF(MOD(WEEKDAY(H7)+5,7)=1,"Ti",IF(MOD(WEEKDAY(H7)+5,7)=2,"Ke",IF(MOD(WEEKDAY(H7)+5,7)=3,"To",IF(MOD(WEEKDAY(H7)+5,7)=4,"Pe",IF(MOD(WEEKDAY(H7)+5,7)=5,"La","Su"))))))</f>
         <v>Ti</v>
@@ -5481,12 +5889,12 @@
       <c r="AO8" s="49"/>
       <c r="AP8" s="27"/>
     </row>
-    <row r="9" spans="2:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="200"/>
-      <c r="C9" s="201"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="204"/>
+    <row r="9" spans="2:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="246"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="241"/>
+      <c r="F9" s="250"/>
       <c r="G9" s="50"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -5524,16 +5932,16 @@
       <c r="AO9" s="54"/>
       <c r="AP9" s="27"/>
     </row>
-    <row r="10" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="129">
+    <row r="10" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="194">
         <v>1213</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="168">
+      <c r="C10" s="195"/>
+      <c r="D10" s="200" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="195"/>
+      <c r="F10" s="211">
         <v>456789</v>
       </c>
       <c r="G10" s="57" t="s">
@@ -5619,12 +6027,12 @@
       <c r="AP10" s="27"/>
       <c r="AQ10" s="34"/>
     </row>
-    <row r="11" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="169"/>
+    <row r="11" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="196"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="212"/>
       <c r="G11" s="60" t="s">
         <v>15</v>
       </c>
@@ -5668,12 +6076,12 @@
       <c r="AP11" s="27"/>
       <c r="AQ11" s="34"/>
     </row>
-    <row r="12" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="169"/>
+    <row r="12" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="196"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="212"/>
       <c r="G12" s="63" t="s">
         <v>16</v>
       </c>
@@ -5717,12 +6125,12 @@
       <c r="AP12" s="27"/>
       <c r="AQ12" s="34"/>
     </row>
-    <row r="13" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="169"/>
+    <row r="13" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="196"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="212"/>
       <c r="G13" s="63" t="s">
         <v>17</v>
       </c>
@@ -5766,12 +6174,12 @@
       <c r="AP13" s="27"/>
       <c r="AQ13" s="34"/>
     </row>
-    <row r="14" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="169"/>
+    <row r="14" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="196"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="212"/>
       <c r="G14" s="63" t="s">
         <v>18</v>
       </c>
@@ -5815,12 +6223,12 @@
       <c r="AP14" s="27"/>
       <c r="AQ14" s="34"/>
     </row>
-    <row r="15" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="169"/>
+    <row r="15" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="196"/>
+      <c r="C15" s="197"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="212"/>
       <c r="G15" s="63" t="s">
         <v>19</v>
       </c>
@@ -5864,12 +6272,12 @@
       <c r="AP15" s="27"/>
       <c r="AQ15" s="34"/>
     </row>
-    <row r="16" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="169"/>
+    <row r="16" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="196"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="212"/>
       <c r="G16" s="69" t="s">
         <v>20</v>
       </c>
@@ -5913,12 +6321,12 @@
       <c r="AP16" s="27"/>
       <c r="AQ16" s="34"/>
     </row>
-    <row r="17" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="169"/>
+    <row r="17" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="196"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="212"/>
       <c r="G17" s="63" t="s">
         <v>30</v>
       </c>
@@ -5962,12 +6370,12 @@
       <c r="AP17" s="27"/>
       <c r="AQ17" s="34"/>
     </row>
-    <row r="18" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="169"/>
+    <row r="18" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="196"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="212"/>
       <c r="G18" s="63" t="s">
         <v>23</v>
       </c>
@@ -6011,12 +6419,12 @@
       <c r="AP18" s="27"/>
       <c r="AQ18" s="34"/>
     </row>
-    <row r="19" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="169"/>
+    <row r="19" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="212"/>
       <c r="G19" s="63" t="s">
         <v>26</v>
       </c>
@@ -6060,12 +6468,12 @@
       <c r="AP19" s="27"/>
       <c r="AQ19" s="34"/>
     </row>
-    <row r="20" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="169"/>
+    <row r="20" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="196"/>
+      <c r="C20" s="197"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="212"/>
       <c r="G20" s="63" t="s">
         <v>24</v>
       </c>
@@ -6109,12 +6517,12 @@
       <c r="AP20" s="27"/>
       <c r="AQ20" s="34"/>
     </row>
-    <row r="21" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="133"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="170"/>
+    <row r="21" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="213"/>
       <c r="G21" s="70" t="s">
         <v>25</v>
       </c>
@@ -6158,16 +6566,16 @@
       <c r="AP21" s="27"/>
       <c r="AQ21" s="34"/>
     </row>
-    <row r="22" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="129">
+    <row r="22" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="194">
         <v>5555</v>
       </c>
-      <c r="C22" s="171"/>
-      <c r="D22" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="168">
+      <c r="C22" s="214"/>
+      <c r="D22" s="200" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="195"/>
+      <c r="F22" s="211">
         <v>667333</v>
       </c>
       <c r="G22" s="57" t="s">
@@ -6219,12 +6627,12 @@
       <c r="AP22" s="27"/>
       <c r="AQ22" s="34"/>
     </row>
-    <row r="23" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="186"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="178"/>
+    <row r="23" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="232"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="221"/>
       <c r="G23" s="60" t="s">
         <v>15</v>
       </c>
@@ -6268,12 +6676,12 @@
       <c r="AP23" s="27"/>
       <c r="AQ23" s="34"/>
     </row>
-    <row r="24" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="186"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="178"/>
+    <row r="24" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="232"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="221"/>
       <c r="G24" s="63" t="s">
         <v>16</v>
       </c>
@@ -6317,12 +6725,12 @@
       <c r="AP24" s="27"/>
       <c r="AQ24" s="34"/>
     </row>
-    <row r="25" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="186"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="178"/>
+    <row r="25" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="232"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="221"/>
       <c r="G25" s="63" t="s">
         <v>17</v>
       </c>
@@ -6366,12 +6774,12 @@
       <c r="AP25" s="27"/>
       <c r="AQ25" s="34"/>
     </row>
-    <row r="26" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="186"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="178"/>
+    <row r="26" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="232"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="221"/>
       <c r="G26" s="63" t="s">
         <v>18</v>
       </c>
@@ -6415,12 +6823,12 @@
       <c r="AP26" s="27"/>
       <c r="AQ26" s="34"/>
     </row>
-    <row r="27" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="186"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="178"/>
+    <row r="27" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="232"/>
+      <c r="C27" s="216"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="221"/>
       <c r="G27" s="63" t="s">
         <v>19</v>
       </c>
@@ -6464,12 +6872,12 @@
       <c r="AP27" s="27"/>
       <c r="AQ27" s="34"/>
     </row>
-    <row r="28" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="186"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="178"/>
+    <row r="28" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="232"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="221"/>
       <c r="G28" s="69" t="s">
         <v>20</v>
       </c>
@@ -6513,12 +6921,12 @@
       <c r="AP28" s="27"/>
       <c r="AQ28" s="34"/>
     </row>
-    <row r="29" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="186"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="178"/>
+    <row r="29" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="232"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="221"/>
       <c r="G29" s="63" t="s">
         <v>30</v>
       </c>
@@ -6562,12 +6970,12 @@
       <c r="AP29" s="27"/>
       <c r="AQ29" s="34"/>
     </row>
-    <row r="30" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="186"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="178"/>
+    <row r="30" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="232"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="221"/>
       <c r="G30" s="63" t="s">
         <v>23</v>
       </c>
@@ -6613,12 +7021,12 @@
       <c r="AP30" s="27"/>
       <c r="AQ30" s="34"/>
     </row>
-    <row r="31" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="186"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="178"/>
+    <row r="31" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="232"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="221"/>
       <c r="G31" s="63" t="s">
         <v>26</v>
       </c>
@@ -6662,12 +7070,12 @@
       <c r="AP31" s="27"/>
       <c r="AQ31" s="34"/>
     </row>
-    <row r="32" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="186"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="178"/>
+    <row r="32" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="232"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="202"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="221"/>
       <c r="G32" s="63" t="s">
         <v>24</v>
       </c>
@@ -6711,12 +7119,12 @@
       <c r="AP32" s="27"/>
       <c r="AQ32" s="34"/>
     </row>
-    <row r="33" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="187"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="179"/>
+    <row r="33" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="233"/>
+      <c r="C33" s="218"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="199"/>
+      <c r="F33" s="222"/>
       <c r="G33" s="70" t="s">
         <v>25</v>
       </c>
@@ -6760,16 +7168,16 @@
       <c r="AP33" s="27"/>
       <c r="AQ33" s="34"/>
     </row>
-    <row r="34" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="129">
+    <row r="34" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="194">
         <v>9000</v>
       </c>
-      <c r="C34" s="171"/>
-      <c r="D34" s="135" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="171"/>
-      <c r="F34" s="139"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="200" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="214"/>
+      <c r="F34" s="204"/>
       <c r="G34" s="57" t="s">
         <v>27</v>
       </c>
@@ -6833,12 +7241,12 @@
       <c r="AP34" s="27"/>
       <c r="AQ34" s="34"/>
     </row>
-    <row r="35" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="186"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="176"/>
+    <row r="35" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="232"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="219"/>
       <c r="G35" s="60" t="s">
         <v>15</v>
       </c>
@@ -6882,12 +7290,12 @@
       <c r="AP35" s="27"/>
       <c r="AQ35" s="34"/>
     </row>
-    <row r="36" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="186"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="172"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="176"/>
+    <row r="36" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="232"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="219"/>
       <c r="G36" s="63" t="s">
         <v>16</v>
       </c>
@@ -6931,12 +7339,12 @@
       <c r="AP36" s="27"/>
       <c r="AQ36" s="34"/>
     </row>
-    <row r="37" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="186"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="176"/>
+    <row r="37" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="232"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="219"/>
       <c r="G37" s="63" t="s">
         <v>17</v>
       </c>
@@ -6980,12 +7388,12 @@
       <c r="AP37" s="27"/>
       <c r="AQ37" s="34"/>
     </row>
-    <row r="38" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="186"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="176"/>
+    <row r="38" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="232"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="219"/>
       <c r="G38" s="63" t="s">
         <v>18</v>
       </c>
@@ -7029,12 +7437,12 @@
       <c r="AP38" s="27"/>
       <c r="AQ38" s="34"/>
     </row>
-    <row r="39" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="186"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="176"/>
+    <row r="39" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="232"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="219"/>
       <c r="G39" s="63" t="s">
         <v>19</v>
       </c>
@@ -7078,12 +7486,12 @@
       <c r="AP39" s="27"/>
       <c r="AQ39" s="34"/>
     </row>
-    <row r="40" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="186"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="176"/>
+    <row r="40" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="232"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="215"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="219"/>
       <c r="G40" s="69" t="s">
         <v>20</v>
       </c>
@@ -7127,12 +7535,12 @@
       <c r="AP40" s="27"/>
       <c r="AQ40" s="34"/>
     </row>
-    <row r="41" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="186"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="176"/>
+    <row r="41" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="232"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="215"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="219"/>
       <c r="G41" s="63" t="s">
         <v>30</v>
       </c>
@@ -7176,12 +7584,12 @@
       <c r="AP41" s="27"/>
       <c r="AQ41" s="34"/>
     </row>
-    <row r="42" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="186"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="176"/>
+    <row r="42" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="232"/>
+      <c r="C42" s="216"/>
+      <c r="D42" s="215"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="219"/>
       <c r="G42" s="63" t="s">
         <v>23</v>
       </c>
@@ -7227,12 +7635,12 @@
       <c r="AP42" s="27"/>
       <c r="AQ42" s="34"/>
     </row>
-    <row r="43" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="186"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="176"/>
+    <row r="43" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="232"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="216"/>
+      <c r="F43" s="219"/>
       <c r="G43" s="63" t="s">
         <v>26</v>
       </c>
@@ -7276,12 +7684,12 @@
       <c r="AP43" s="27"/>
       <c r="AQ43" s="34"/>
     </row>
-    <row r="44" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="186"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="176"/>
+    <row r="44" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="232"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="215"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="219"/>
       <c r="G44" s="63" t="s">
         <v>24</v>
       </c>
@@ -7325,12 +7733,12 @@
       <c r="AP44" s="27"/>
       <c r="AQ44" s="34"/>
     </row>
-    <row r="45" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="187"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="174"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="177"/>
+    <row r="45" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="233"/>
+      <c r="C45" s="218"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="218"/>
+      <c r="F45" s="220"/>
       <c r="G45" s="70" t="s">
         <v>25</v>
       </c>
@@ -7374,12 +7782,12 @@
       <c r="AP45" s="27"/>
       <c r="AQ45" s="34"/>
     </row>
-    <row r="46" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="129"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="139"/>
+    <row r="46" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="194"/>
+      <c r="C46" s="214"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="214"/>
+      <c r="F46" s="204"/>
       <c r="G46" s="57" t="s">
         <v>27</v>
       </c>
@@ -7423,12 +7831,12 @@
       <c r="AP46" s="27"/>
       <c r="AQ46" s="34"/>
     </row>
-    <row r="47" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="186"/>
-      <c r="C47" s="173"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="173"/>
-      <c r="F47" s="176"/>
+    <row r="47" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="232"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="219"/>
       <c r="G47" s="60" t="s">
         <v>15</v>
       </c>
@@ -7472,12 +7880,12 @@
       <c r="AP47" s="27"/>
       <c r="AQ47" s="34"/>
     </row>
-    <row r="48" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="186"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="176"/>
+    <row r="48" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="232"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="215"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="219"/>
       <c r="G48" s="63" t="s">
         <v>16</v>
       </c>
@@ -7521,12 +7929,12 @@
       <c r="AP48" s="27"/>
       <c r="AQ48" s="34"/>
     </row>
-    <row r="49" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="186"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="172"/>
-      <c r="E49" s="173"/>
-      <c r="F49" s="176"/>
+    <row r="49" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="232"/>
+      <c r="C49" s="216"/>
+      <c r="D49" s="215"/>
+      <c r="E49" s="216"/>
+      <c r="F49" s="219"/>
       <c r="G49" s="63" t="s">
         <v>17</v>
       </c>
@@ -7570,12 +7978,12 @@
       <c r="AP49" s="27"/>
       <c r="AQ49" s="34"/>
     </row>
-    <row r="50" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="186"/>
-      <c r="C50" s="173"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="176"/>
+    <row r="50" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="232"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="215"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="219"/>
       <c r="G50" s="63" t="s">
         <v>18</v>
       </c>
@@ -7619,12 +8027,12 @@
       <c r="AP50" s="27"/>
       <c r="AQ50" s="34"/>
     </row>
-    <row r="51" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="186"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="173"/>
-      <c r="F51" s="176"/>
+    <row r="51" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="232"/>
+      <c r="C51" s="216"/>
+      <c r="D51" s="215"/>
+      <c r="E51" s="216"/>
+      <c r="F51" s="219"/>
       <c r="G51" s="63" t="s">
         <v>19</v>
       </c>
@@ -7668,12 +8076,12 @@
       <c r="AP51" s="27"/>
       <c r="AQ51" s="34"/>
     </row>
-    <row r="52" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="186"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="176"/>
+    <row r="52" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="232"/>
+      <c r="C52" s="216"/>
+      <c r="D52" s="215"/>
+      <c r="E52" s="216"/>
+      <c r="F52" s="219"/>
       <c r="G52" s="69" t="s">
         <v>20</v>
       </c>
@@ -7717,12 +8125,12 @@
       <c r="AP52" s="27"/>
       <c r="AQ52" s="34"/>
     </row>
-    <row r="53" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="186"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="173"/>
-      <c r="F53" s="176"/>
+    <row r="53" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="232"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="215"/>
+      <c r="E53" s="216"/>
+      <c r="F53" s="219"/>
       <c r="G53" s="63" t="s">
         <v>30</v>
       </c>
@@ -7766,12 +8174,12 @@
       <c r="AP53" s="27"/>
       <c r="AQ53" s="34"/>
     </row>
-    <row r="54" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="186"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="172"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="176"/>
+    <row r="54" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="232"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="215"/>
+      <c r="E54" s="216"/>
+      <c r="F54" s="219"/>
       <c r="G54" s="63" t="s">
         <v>23</v>
       </c>
@@ -7815,12 +8223,12 @@
       <c r="AP54" s="27"/>
       <c r="AQ54" s="34"/>
     </row>
-    <row r="55" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="186"/>
-      <c r="C55" s="173"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="176"/>
+    <row r="55" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="232"/>
+      <c r="C55" s="216"/>
+      <c r="D55" s="215"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="219"/>
       <c r="G55" s="63" t="s">
         <v>26</v>
       </c>
@@ -7864,12 +8272,12 @@
       <c r="AP55" s="27"/>
       <c r="AQ55" s="34"/>
     </row>
-    <row r="56" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="186"/>
-      <c r="C56" s="173"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="176"/>
+    <row r="56" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="232"/>
+      <c r="C56" s="216"/>
+      <c r="D56" s="215"/>
+      <c r="E56" s="216"/>
+      <c r="F56" s="219"/>
       <c r="G56" s="63" t="s">
         <v>24</v>
       </c>
@@ -7913,12 +8321,12 @@
       <c r="AP56" s="27"/>
       <c r="AQ56" s="34"/>
     </row>
-    <row r="57" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="187"/>
-      <c r="C57" s="175"/>
-      <c r="D57" s="174"/>
-      <c r="E57" s="175"/>
-      <c r="F57" s="177"/>
+    <row r="57" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="233"/>
+      <c r="C57" s="218"/>
+      <c r="D57" s="217"/>
+      <c r="E57" s="218"/>
+      <c r="F57" s="220"/>
       <c r="G57" s="70" t="s">
         <v>25</v>
       </c>
@@ -7962,12 +8370,12 @@
       <c r="AP57" s="27"/>
       <c r="AQ57" s="34"/>
     </row>
-    <row r="58" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="129"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="164"/>
+    <row r="58" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="194"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="195"/>
+      <c r="F58" s="185"/>
       <c r="G58" s="57" t="s">
         <v>27</v>
       </c>
@@ -8011,12 +8419,12 @@
       <c r="AP58" s="27"/>
       <c r="AQ58" s="34"/>
     </row>
-    <row r="59" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="131"/>
-      <c r="C59" s="132"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="165"/>
+    <row r="59" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="196"/>
+      <c r="C59" s="197"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="197"/>
+      <c r="F59" s="186"/>
       <c r="G59" s="60" t="s">
         <v>15</v>
       </c>
@@ -8060,12 +8468,12 @@
       <c r="AP59" s="27"/>
       <c r="AQ59" s="34"/>
     </row>
-    <row r="60" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="131"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="165"/>
+    <row r="60" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="196"/>
+      <c r="C60" s="197"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="186"/>
       <c r="G60" s="63" t="s">
         <v>16</v>
       </c>
@@ -8109,12 +8517,12 @@
       <c r="AP60" s="27"/>
       <c r="AQ60" s="34"/>
     </row>
-    <row r="61" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="131"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="165"/>
+    <row r="61" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="196"/>
+      <c r="C61" s="197"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="197"/>
+      <c r="F61" s="186"/>
       <c r="G61" s="63" t="s">
         <v>17</v>
       </c>
@@ -8158,12 +8566,12 @@
       <c r="AP61" s="27"/>
       <c r="AQ61" s="34"/>
     </row>
-    <row r="62" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="131"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="165"/>
+    <row r="62" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="196"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="201"/>
+      <c r="E62" s="197"/>
+      <c r="F62" s="186"/>
       <c r="G62" s="63" t="s">
         <v>18</v>
       </c>
@@ -8207,12 +8615,12 @@
       <c r="AP62" s="27"/>
       <c r="AQ62" s="34"/>
     </row>
-    <row r="63" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="131"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="165"/>
+    <row r="63" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="196"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="186"/>
       <c r="G63" s="63" t="s">
         <v>19</v>
       </c>
@@ -8256,12 +8664,12 @@
       <c r="AP63" s="27"/>
       <c r="AQ63" s="34"/>
     </row>
-    <row r="64" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="131"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="165"/>
+    <row r="64" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="196"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="186"/>
       <c r="G64" s="69" t="s">
         <v>20</v>
       </c>
@@ -8305,12 +8713,12 @@
       <c r="AP64" s="27"/>
       <c r="AQ64" s="34"/>
     </row>
-    <row r="65" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="131"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="165"/>
+    <row r="65" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="196"/>
+      <c r="C65" s="197"/>
+      <c r="D65" s="202"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="186"/>
       <c r="G65" s="63" t="s">
         <v>30</v>
       </c>
@@ -8354,12 +8762,12 @@
       <c r="AP65" s="27"/>
       <c r="AQ65" s="34"/>
     </row>
-    <row r="66" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="131"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="137"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="165"/>
+    <row r="66" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="196"/>
+      <c r="C66" s="197"/>
+      <c r="D66" s="202"/>
+      <c r="E66" s="197"/>
+      <c r="F66" s="186"/>
       <c r="G66" s="63" t="s">
         <v>23</v>
       </c>
@@ -8403,12 +8811,12 @@
       <c r="AP66" s="27"/>
       <c r="AQ66" s="34"/>
     </row>
-    <row r="67" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="131"/>
-      <c r="C67" s="132"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="132"/>
-      <c r="F67" s="165"/>
+    <row r="67" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="196"/>
+      <c r="C67" s="197"/>
+      <c r="D67" s="202"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="186"/>
       <c r="G67" s="63" t="s">
         <v>26</v>
       </c>
@@ -8452,12 +8860,12 @@
       <c r="AP67" s="27"/>
       <c r="AQ67" s="34"/>
     </row>
-    <row r="68" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="131"/>
-      <c r="C68" s="132"/>
-      <c r="D68" s="137"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="165"/>
+    <row r="68" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="196"/>
+      <c r="C68" s="197"/>
+      <c r="D68" s="202"/>
+      <c r="E68" s="197"/>
+      <c r="F68" s="186"/>
       <c r="G68" s="63" t="s">
         <v>24</v>
       </c>
@@ -8501,12 +8909,12 @@
       <c r="AP68" s="27"/>
       <c r="AQ68" s="34"/>
     </row>
-    <row r="69" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="133"/>
-      <c r="C69" s="134"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="134"/>
-      <c r="F69" s="166"/>
+    <row r="69" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="198"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="199"/>
+      <c r="F69" s="187"/>
       <c r="G69" s="70" t="s">
         <v>25</v>
       </c>
@@ -8550,12 +8958,12 @@
       <c r="AP69" s="27"/>
       <c r="AQ69" s="34"/>
     </row>
-    <row r="70" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="129"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="135"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="139"/>
+    <row r="70" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="194"/>
+      <c r="C70" s="195"/>
+      <c r="D70" s="200"/>
+      <c r="E70" s="195"/>
+      <c r="F70" s="204"/>
       <c r="G70" s="57" t="s">
         <v>27</v>
       </c>
@@ -8599,12 +9007,12 @@
       <c r="AP70" s="27"/>
       <c r="AQ70" s="34"/>
     </row>
-    <row r="71" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="131"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="132"/>
-      <c r="F71" s="140"/>
+    <row r="71" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="196"/>
+      <c r="C71" s="197"/>
+      <c r="D71" s="201"/>
+      <c r="E71" s="197"/>
+      <c r="F71" s="205"/>
       <c r="G71" s="60" t="s">
         <v>15</v>
       </c>
@@ -8648,12 +9056,12 @@
       <c r="AP71" s="27"/>
       <c r="AQ71" s="34"/>
     </row>
-    <row r="72" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="131"/>
-      <c r="C72" s="132"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="132"/>
-      <c r="F72" s="140"/>
+    <row r="72" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="196"/>
+      <c r="C72" s="197"/>
+      <c r="D72" s="201"/>
+      <c r="E72" s="197"/>
+      <c r="F72" s="205"/>
       <c r="G72" s="63" t="s">
         <v>16</v>
       </c>
@@ -8697,12 +9105,12 @@
       <c r="AP72" s="27"/>
       <c r="AQ72" s="34"/>
     </row>
-    <row r="73" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="131"/>
-      <c r="C73" s="132"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="132"/>
-      <c r="F73" s="140"/>
+    <row r="73" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="196"/>
+      <c r="C73" s="197"/>
+      <c r="D73" s="201"/>
+      <c r="E73" s="197"/>
+      <c r="F73" s="205"/>
       <c r="G73" s="63" t="s">
         <v>17</v>
       </c>
@@ -8746,12 +9154,12 @@
       <c r="AP73" s="27"/>
       <c r="AQ73" s="34"/>
     </row>
-    <row r="74" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="131"/>
-      <c r="C74" s="132"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="132"/>
-      <c r="F74" s="140"/>
+    <row r="74" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="196"/>
+      <c r="C74" s="197"/>
+      <c r="D74" s="201"/>
+      <c r="E74" s="197"/>
+      <c r="F74" s="205"/>
       <c r="G74" s="63" t="s">
         <v>18</v>
       </c>
@@ -8795,12 +9203,12 @@
       <c r="AP74" s="128"/>
       <c r="AQ74" s="34"/>
     </row>
-    <row r="75" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="131"/>
-      <c r="C75" s="132"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="132"/>
-      <c r="F75" s="140"/>
+    <row r="75" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="196"/>
+      <c r="C75" s="197"/>
+      <c r="D75" s="201"/>
+      <c r="E75" s="197"/>
+      <c r="F75" s="205"/>
       <c r="G75" s="63" t="s">
         <v>19</v>
       </c>
@@ -8844,12 +9252,12 @@
       <c r="AP75" s="128"/>
       <c r="AQ75" s="34"/>
     </row>
-    <row r="76" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="131"/>
-      <c r="C76" s="132"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="132"/>
-      <c r="F76" s="140"/>
+    <row r="76" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="196"/>
+      <c r="C76" s="197"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="197"/>
+      <c r="F76" s="205"/>
       <c r="G76" s="69" t="s">
         <v>20</v>
       </c>
@@ -8893,12 +9301,12 @@
       <c r="AP76" s="27"/>
       <c r="AQ76" s="34"/>
     </row>
-    <row r="77" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="131"/>
-      <c r="C77" s="132"/>
-      <c r="D77" s="137"/>
-      <c r="E77" s="132"/>
-      <c r="F77" s="140"/>
+    <row r="77" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="196"/>
+      <c r="C77" s="197"/>
+      <c r="D77" s="202"/>
+      <c r="E77" s="197"/>
+      <c r="F77" s="205"/>
       <c r="G77" s="63" t="s">
         <v>30</v>
       </c>
@@ -8942,12 +9350,12 @@
       <c r="AP77" s="27"/>
       <c r="AQ77" s="34"/>
     </row>
-    <row r="78" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="131"/>
-      <c r="C78" s="132"/>
-      <c r="D78" s="137"/>
-      <c r="E78" s="132"/>
-      <c r="F78" s="140"/>
+    <row r="78" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="196"/>
+      <c r="C78" s="197"/>
+      <c r="D78" s="202"/>
+      <c r="E78" s="197"/>
+      <c r="F78" s="205"/>
       <c r="G78" s="63" t="s">
         <v>23</v>
       </c>
@@ -8991,12 +9399,12 @@
       <c r="AP78" s="27"/>
       <c r="AQ78" s="34"/>
     </row>
-    <row r="79" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="131"/>
-      <c r="C79" s="132"/>
-      <c r="D79" s="137"/>
-      <c r="E79" s="132"/>
-      <c r="F79" s="140"/>
+    <row r="79" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="196"/>
+      <c r="C79" s="197"/>
+      <c r="D79" s="202"/>
+      <c r="E79" s="197"/>
+      <c r="F79" s="205"/>
       <c r="G79" s="63" t="s">
         <v>26</v>
       </c>
@@ -9040,12 +9448,12 @@
       <c r="AP79" s="27"/>
       <c r="AQ79" s="34"/>
     </row>
-    <row r="80" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="131"/>
-      <c r="C80" s="132"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="140"/>
+    <row r="80" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="196"/>
+      <c r="C80" s="197"/>
+      <c r="D80" s="202"/>
+      <c r="E80" s="197"/>
+      <c r="F80" s="205"/>
       <c r="G80" s="63" t="s">
         <v>24</v>
       </c>
@@ -9089,12 +9497,12 @@
       <c r="AP80" s="27"/>
       <c r="AQ80" s="34"/>
     </row>
-    <row r="81" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="133"/>
-      <c r="C81" s="134"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="134"/>
-      <c r="F81" s="141"/>
+    <row r="81" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="198"/>
+      <c r="C81" s="199"/>
+      <c r="D81" s="203"/>
+      <c r="E81" s="199"/>
+      <c r="F81" s="206"/>
       <c r="G81" s="70" t="s">
         <v>25</v>
       </c>
@@ -9138,12 +9546,12 @@
       <c r="AP81" s="27"/>
       <c r="AQ81" s="34"/>
     </row>
-    <row r="82" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="129"/>
-      <c r="C82" s="130"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="130"/>
-      <c r="F82" s="164"/>
+    <row r="82" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="194"/>
+      <c r="C82" s="195"/>
+      <c r="D82" s="200"/>
+      <c r="E82" s="195"/>
+      <c r="F82" s="185"/>
       <c r="G82" s="57" t="s">
         <v>27</v>
       </c>
@@ -9187,12 +9595,12 @@
       <c r="AP82" s="27"/>
       <c r="AQ82" s="34"/>
     </row>
-    <row r="83" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="131"/>
-      <c r="C83" s="132"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="132"/>
-      <c r="F83" s="165"/>
+    <row r="83" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="196"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="201"/>
+      <c r="E83" s="197"/>
+      <c r="F83" s="186"/>
       <c r="G83" s="60" t="s">
         <v>15</v>
       </c>
@@ -9236,12 +9644,12 @@
       <c r="AP83" s="27"/>
       <c r="AQ83" s="34"/>
     </row>
-    <row r="84" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="131"/>
-      <c r="C84" s="132"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="132"/>
-      <c r="F84" s="165"/>
+    <row r="84" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="196"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="201"/>
+      <c r="E84" s="197"/>
+      <c r="F84" s="186"/>
       <c r="G84" s="63" t="s">
         <v>16</v>
       </c>
@@ -9285,12 +9693,12 @@
       <c r="AP84" s="27"/>
       <c r="AQ84" s="34"/>
     </row>
-    <row r="85" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="131"/>
-      <c r="C85" s="132"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="132"/>
-      <c r="F85" s="165"/>
+    <row r="85" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="196"/>
+      <c r="C85" s="197"/>
+      <c r="D85" s="201"/>
+      <c r="E85" s="197"/>
+      <c r="F85" s="186"/>
       <c r="G85" s="63" t="s">
         <v>17</v>
       </c>
@@ -9334,12 +9742,12 @@
       <c r="AP85" s="27"/>
       <c r="AQ85" s="34"/>
     </row>
-    <row r="86" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="131"/>
-      <c r="C86" s="132"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="165"/>
+    <row r="86" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="196"/>
+      <c r="C86" s="197"/>
+      <c r="D86" s="201"/>
+      <c r="E86" s="197"/>
+      <c r="F86" s="186"/>
       <c r="G86" s="63" t="s">
         <v>18</v>
       </c>
@@ -9383,12 +9791,12 @@
       <c r="AP86" s="27"/>
       <c r="AQ86" s="34"/>
     </row>
-    <row r="87" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="131"/>
-      <c r="C87" s="132"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="132"/>
-      <c r="F87" s="165"/>
+    <row r="87" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="196"/>
+      <c r="C87" s="197"/>
+      <c r="D87" s="201"/>
+      <c r="E87" s="197"/>
+      <c r="F87" s="186"/>
       <c r="G87" s="63" t="s">
         <v>19</v>
       </c>
@@ -9432,12 +9840,12 @@
       <c r="AP87" s="27"/>
       <c r="AQ87" s="34"/>
     </row>
-    <row r="88" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="131"/>
-      <c r="C88" s="132"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="132"/>
-      <c r="F88" s="165"/>
+    <row r="88" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="196"/>
+      <c r="C88" s="197"/>
+      <c r="D88" s="201"/>
+      <c r="E88" s="197"/>
+      <c r="F88" s="186"/>
       <c r="G88" s="69" t="s">
         <v>20</v>
       </c>
@@ -9481,12 +9889,12 @@
       <c r="AP88" s="27"/>
       <c r="AQ88" s="127"/>
     </row>
-    <row r="89" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="131"/>
-      <c r="C89" s="132"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="132"/>
-      <c r="F89" s="165"/>
+    <row r="89" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="196"/>
+      <c r="C89" s="197"/>
+      <c r="D89" s="202"/>
+      <c r="E89" s="197"/>
+      <c r="F89" s="186"/>
       <c r="G89" s="63" t="s">
         <v>30</v>
       </c>
@@ -9530,12 +9938,12 @@
       <c r="AP89" s="27"/>
       <c r="AQ89" s="127"/>
     </row>
-    <row r="90" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="131"/>
-      <c r="C90" s="132"/>
-      <c r="D90" s="137"/>
-      <c r="E90" s="132"/>
-      <c r="F90" s="165"/>
+    <row r="90" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="196"/>
+      <c r="C90" s="197"/>
+      <c r="D90" s="202"/>
+      <c r="E90" s="197"/>
+      <c r="F90" s="186"/>
       <c r="G90" s="63" t="s">
         <v>23</v>
       </c>
@@ -9579,12 +9987,12 @@
       <c r="AP90" s="27"/>
       <c r="AQ90" s="127"/>
     </row>
-    <row r="91" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="131"/>
-      <c r="C91" s="132"/>
-      <c r="D91" s="137"/>
-      <c r="E91" s="132"/>
-      <c r="F91" s="165"/>
+    <row r="91" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="196"/>
+      <c r="C91" s="197"/>
+      <c r="D91" s="202"/>
+      <c r="E91" s="197"/>
+      <c r="F91" s="186"/>
       <c r="G91" s="63" t="s">
         <v>26</v>
       </c>
@@ -9628,12 +10036,12 @@
       <c r="AP91" s="27"/>
       <c r="AQ91" s="34"/>
     </row>
-    <row r="92" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="131"/>
-      <c r="C92" s="132"/>
-      <c r="D92" s="137"/>
-      <c r="E92" s="132"/>
-      <c r="F92" s="165"/>
+    <row r="92" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="196"/>
+      <c r="C92" s="197"/>
+      <c r="D92" s="202"/>
+      <c r="E92" s="197"/>
+      <c r="F92" s="186"/>
       <c r="G92" s="63" t="s">
         <v>24</v>
       </c>
@@ -9676,12 +10084,12 @@
       <c r="AO92" s="77"/>
       <c r="AP92" s="27"/>
     </row>
-    <row r="93" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="133"/>
-      <c r="C93" s="134"/>
-      <c r="D93" s="138"/>
-      <c r="E93" s="134"/>
-      <c r="F93" s="166"/>
+    <row r="93" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="198"/>
+      <c r="C93" s="199"/>
+      <c r="D93" s="203"/>
+      <c r="E93" s="199"/>
+      <c r="F93" s="187"/>
       <c r="G93" s="70" t="s">
         <v>25</v>
       </c>
@@ -9724,14 +10132,14 @@
       <c r="AO93" s="78"/>
       <c r="AP93" s="27"/>
     </row>
-    <row r="94" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="210"/>
-      <c r="C94" s="159"/>
-      <c r="D94" s="158" t="s">
+    <row r="94" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="188"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="E94" s="159"/>
-      <c r="F94" s="142"/>
+      <c r="E94" s="189"/>
+      <c r="F94" s="223"/>
       <c r="G94" s="86" t="s">
         <v>27</v>
       </c>
@@ -9867,12 +10275,12 @@
       <c r="AO94" s="89"/>
       <c r="AP94" s="27"/>
     </row>
-    <row r="95" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="211"/>
-      <c r="C95" s="161"/>
-      <c r="D95" s="160"/>
-      <c r="E95" s="161"/>
-      <c r="F95" s="143"/>
+    <row r="95" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="190"/>
+      <c r="C95" s="191"/>
+      <c r="D95" s="208"/>
+      <c r="E95" s="191"/>
+      <c r="F95" s="224"/>
       <c r="G95" s="90" t="s">
         <v>15</v>
       </c>
@@ -10008,12 +10416,12 @@
       <c r="AO95" s="93"/>
       <c r="AP95" s="27"/>
     </row>
-    <row r="96" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="211"/>
-      <c r="C96" s="161"/>
-      <c r="D96" s="160"/>
-      <c r="E96" s="161"/>
-      <c r="F96" s="143"/>
+    <row r="96" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="190"/>
+      <c r="C96" s="191"/>
+      <c r="D96" s="208"/>
+      <c r="E96" s="191"/>
+      <c r="F96" s="224"/>
       <c r="G96" s="94" t="s">
         <v>16</v>
       </c>
@@ -10149,12 +10557,12 @@
       <c r="AO96" s="95"/>
       <c r="AP96" s="27"/>
     </row>
-    <row r="97" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="211"/>
-      <c r="C97" s="161"/>
-      <c r="D97" s="160"/>
-      <c r="E97" s="161"/>
-      <c r="F97" s="143"/>
+    <row r="97" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="190"/>
+      <c r="C97" s="191"/>
+      <c r="D97" s="208"/>
+      <c r="E97" s="191"/>
+      <c r="F97" s="224"/>
       <c r="G97" s="94" t="s">
         <v>17</v>
       </c>
@@ -10290,12 +10698,12 @@
       <c r="AO97" s="95"/>
       <c r="AP97" s="27"/>
     </row>
-    <row r="98" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="211"/>
-      <c r="C98" s="161"/>
-      <c r="D98" s="160"/>
-      <c r="E98" s="161"/>
-      <c r="F98" s="143"/>
+    <row r="98" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="190"/>
+      <c r="C98" s="191"/>
+      <c r="D98" s="208"/>
+      <c r="E98" s="191"/>
+      <c r="F98" s="224"/>
       <c r="G98" s="94" t="s">
         <v>18</v>
       </c>
@@ -10431,12 +10839,12 @@
       <c r="AO98" s="96"/>
       <c r="AP98" s="27"/>
     </row>
-    <row r="99" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="211"/>
-      <c r="C99" s="161"/>
-      <c r="D99" s="160"/>
-      <c r="E99" s="161"/>
-      <c r="F99" s="143"/>
+    <row r="99" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="190"/>
+      <c r="C99" s="191"/>
+      <c r="D99" s="208"/>
+      <c r="E99" s="191"/>
+      <c r="F99" s="224"/>
       <c r="G99" s="94" t="s">
         <v>19</v>
       </c>
@@ -10572,12 +10980,12 @@
       <c r="AO99" s="96"/>
       <c r="AP99" s="27"/>
     </row>
-    <row r="100" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="211"/>
-      <c r="C100" s="161"/>
-      <c r="D100" s="160"/>
-      <c r="E100" s="161"/>
-      <c r="F100" s="143"/>
+    <row r="100" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="190"/>
+      <c r="C100" s="191"/>
+      <c r="D100" s="208"/>
+      <c r="E100" s="191"/>
+      <c r="F100" s="224"/>
       <c r="G100" s="97" t="s">
         <v>20</v>
       </c>
@@ -10713,12 +11121,12 @@
       <c r="AO100" s="98"/>
       <c r="AP100" s="27"/>
     </row>
-    <row r="101" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="211"/>
-      <c r="C101" s="161"/>
-      <c r="D101" s="160"/>
-      <c r="E101" s="161"/>
-      <c r="F101" s="143"/>
+    <row r="101" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="190"/>
+      <c r="C101" s="191"/>
+      <c r="D101" s="208"/>
+      <c r="E101" s="191"/>
+      <c r="F101" s="224"/>
       <c r="G101" s="94" t="s">
         <v>30</v>
       </c>
@@ -10854,12 +11262,12 @@
       <c r="AO101" s="96"/>
       <c r="AP101" s="27"/>
     </row>
-    <row r="102" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="211"/>
-      <c r="C102" s="161"/>
-      <c r="D102" s="160"/>
-      <c r="E102" s="161"/>
-      <c r="F102" s="143"/>
+    <row r="102" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="190"/>
+      <c r="C102" s="191"/>
+      <c r="D102" s="208"/>
+      <c r="E102" s="191"/>
+      <c r="F102" s="224"/>
       <c r="G102" s="94" t="s">
         <v>23</v>
       </c>
@@ -10995,12 +11403,12 @@
       <c r="AO102" s="96"/>
       <c r="AP102" s="27"/>
     </row>
-    <row r="103" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="211"/>
-      <c r="C103" s="161"/>
-      <c r="D103" s="160"/>
-      <c r="E103" s="161"/>
-      <c r="F103" s="143"/>
+    <row r="103" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="190"/>
+      <c r="C103" s="191"/>
+      <c r="D103" s="208"/>
+      <c r="E103" s="191"/>
+      <c r="F103" s="224"/>
       <c r="G103" s="94" t="s">
         <v>26</v>
       </c>
@@ -11136,12 +11544,12 @@
       <c r="AO103" s="96"/>
       <c r="AP103" s="27"/>
     </row>
-    <row r="104" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="211"/>
-      <c r="C104" s="161"/>
-      <c r="D104" s="160"/>
-      <c r="E104" s="161"/>
-      <c r="F104" s="143"/>
+    <row r="104" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="190"/>
+      <c r="C104" s="191"/>
+      <c r="D104" s="208"/>
+      <c r="E104" s="191"/>
+      <c r="F104" s="224"/>
       <c r="G104" s="94" t="s">
         <v>24</v>
       </c>
@@ -11277,12 +11685,12 @@
       <c r="AO104" s="96"/>
       <c r="AP104" s="27"/>
     </row>
-    <row r="105" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="212"/>
-      <c r="C105" s="163"/>
-      <c r="D105" s="162"/>
-      <c r="E105" s="163"/>
-      <c r="F105" s="144"/>
+    <row r="105" spans="2:43" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="192"/>
+      <c r="C105" s="193"/>
+      <c r="D105" s="209"/>
+      <c r="E105" s="193"/>
+      <c r="F105" s="225"/>
       <c r="G105" s="99" t="s">
         <v>25</v>
       </c>
@@ -11418,14 +11826,14 @@
       <c r="AO105" s="98"/>
       <c r="AP105" s="27"/>
     </row>
-    <row r="106" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="145"/>
-      <c r="C106" s="146"/>
-      <c r="D106" s="151" t="s">
+    <row r="106" spans="2:43" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="172"/>
+      <c r="C106" s="173"/>
+      <c r="D106" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="E106" s="146"/>
-      <c r="F106" s="155" t="s">
+      <c r="E106" s="173"/>
+      <c r="F106" s="182" t="s">
         <v>28</v>
       </c>
       <c r="G106" s="102" t="s">
@@ -11517,12 +11925,12 @@
       <c r="AP106" s="27"/>
       <c r="AQ106" s="34"/>
     </row>
-    <row r="107" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="147"/>
-      <c r="C107" s="148"/>
-      <c r="D107" s="152"/>
-      <c r="E107" s="148"/>
-      <c r="F107" s="156"/>
+    <row r="107" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="174"/>
+      <c r="C107" s="175"/>
+      <c r="D107" s="179"/>
+      <c r="E107" s="175"/>
+      <c r="F107" s="183"/>
       <c r="G107" s="107" t="s">
         <v>15</v>
       </c>
@@ -11566,12 +11974,12 @@
       <c r="AP107" s="27"/>
       <c r="AQ107" s="34"/>
     </row>
-    <row r="108" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="147"/>
-      <c r="C108" s="148"/>
-      <c r="D108" s="152"/>
-      <c r="E108" s="148"/>
-      <c r="F108" s="156"/>
+    <row r="108" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="174"/>
+      <c r="C108" s="175"/>
+      <c r="D108" s="179"/>
+      <c r="E108" s="175"/>
+      <c r="F108" s="183"/>
       <c r="G108" s="112" t="s">
         <v>16</v>
       </c>
@@ -11615,12 +12023,12 @@
       <c r="AP108" s="27"/>
       <c r="AQ108" s="34"/>
     </row>
-    <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="147"/>
-      <c r="C109" s="148"/>
-      <c r="D109" s="152"/>
-      <c r="E109" s="148"/>
-      <c r="F109" s="156"/>
+    <row r="109" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="174"/>
+      <c r="C109" s="175"/>
+      <c r="D109" s="179"/>
+      <c r="E109" s="175"/>
+      <c r="F109" s="183"/>
       <c r="G109" s="112" t="s">
         <v>17</v>
       </c>
@@ -11664,12 +12072,12 @@
       <c r="AP109" s="27"/>
       <c r="AQ109" s="34"/>
     </row>
-    <row r="110" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="147"/>
-      <c r="C110" s="148"/>
-      <c r="D110" s="152"/>
-      <c r="E110" s="148"/>
-      <c r="F110" s="156"/>
+    <row r="110" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="174"/>
+      <c r="C110" s="175"/>
+      <c r="D110" s="179"/>
+      <c r="E110" s="175"/>
+      <c r="F110" s="183"/>
       <c r="G110" s="112" t="s">
         <v>18</v>
       </c>
@@ -11713,12 +12121,12 @@
       <c r="AP110" s="27"/>
       <c r="AQ110" s="34"/>
     </row>
-    <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="147"/>
-      <c r="C111" s="148"/>
-      <c r="D111" s="152"/>
-      <c r="E111" s="148"/>
-      <c r="F111" s="156"/>
+    <row r="111" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="174"/>
+      <c r="C111" s="175"/>
+      <c r="D111" s="179"/>
+      <c r="E111" s="175"/>
+      <c r="F111" s="183"/>
       <c r="G111" s="112" t="s">
         <v>19</v>
       </c>
@@ -11762,12 +12170,12 @@
       <c r="AP111" s="27"/>
       <c r="AQ111" s="34"/>
     </row>
-    <row r="112" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="147"/>
-      <c r="C112" s="148"/>
-      <c r="D112" s="152"/>
-      <c r="E112" s="148"/>
-      <c r="F112" s="156"/>
+    <row r="112" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="174"/>
+      <c r="C112" s="175"/>
+      <c r="D112" s="179"/>
+      <c r="E112" s="175"/>
+      <c r="F112" s="183"/>
       <c r="G112" s="119" t="s">
         <v>20</v>
       </c>
@@ -11811,12 +12219,12 @@
       <c r="AP112" s="27"/>
       <c r="AQ112" s="34"/>
     </row>
-    <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="147"/>
-      <c r="C113" s="148"/>
-      <c r="D113" s="153"/>
-      <c r="E113" s="148"/>
-      <c r="F113" s="156"/>
+    <row r="113" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="174"/>
+      <c r="C113" s="175"/>
+      <c r="D113" s="180"/>
+      <c r="E113" s="175"/>
+      <c r="F113" s="183"/>
       <c r="G113" s="112" t="s">
         <v>31</v>
       </c>
@@ -11860,12 +12268,12 @@
       <c r="AP113" s="27"/>
       <c r="AQ113" s="34"/>
     </row>
-    <row r="114" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="147"/>
-      <c r="C114" s="148"/>
-      <c r="D114" s="153"/>
-      <c r="E114" s="148"/>
-      <c r="F114" s="156"/>
+    <row r="114" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="174"/>
+      <c r="C114" s="175"/>
+      <c r="D114" s="180"/>
+      <c r="E114" s="175"/>
+      <c r="F114" s="183"/>
       <c r="G114" s="112" t="s">
         <v>23</v>
       </c>
@@ -11913,12 +12321,12 @@
       <c r="AP114" s="27"/>
       <c r="AQ114" s="34"/>
     </row>
-    <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="147"/>
-      <c r="C115" s="148"/>
-      <c r="D115" s="153"/>
-      <c r="E115" s="148"/>
-      <c r="F115" s="156"/>
+    <row r="115" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="174"/>
+      <c r="C115" s="175"/>
+      <c r="D115" s="180"/>
+      <c r="E115" s="175"/>
+      <c r="F115" s="183"/>
       <c r="G115" s="112" t="s">
         <v>26</v>
       </c>
@@ -11962,12 +12370,12 @@
       <c r="AP115" s="27"/>
       <c r="AQ115" s="34"/>
     </row>
-    <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="147"/>
-      <c r="C116" s="148"/>
-      <c r="D116" s="153"/>
-      <c r="E116" s="148"/>
-      <c r="F116" s="156"/>
+    <row r="116" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="174"/>
+      <c r="C116" s="175"/>
+      <c r="D116" s="180"/>
+      <c r="E116" s="175"/>
+      <c r="F116" s="183"/>
       <c r="G116" s="112" t="s">
         <v>24</v>
       </c>
@@ -12011,12 +12419,12 @@
       <c r="AP116" s="27"/>
       <c r="AQ116" s="34"/>
     </row>
-    <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="149"/>
-      <c r="C117" s="150"/>
-      <c r="D117" s="154"/>
-      <c r="E117" s="150"/>
-      <c r="F117" s="157"/>
+    <row r="117" spans="2:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="176"/>
+      <c r="C117" s="177"/>
+      <c r="D117" s="181"/>
+      <c r="E117" s="177"/>
+      <c r="F117" s="184"/>
       <c r="G117" s="121" t="s">
         <v>25</v>
       </c>
@@ -12060,6 +12468,198 @@
       <c r="AP117" s="27"/>
       <c r="AQ117" s="34"/>
     </row>
+    <row r="118" spans="2:43" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="130"/>
+      <c r="D118" s="131"/>
+      <c r="E118" s="132"/>
+      <c r="F118" s="133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G118" s="134">
+        <v>0</v>
+      </c>
+      <c r="H118" s="135"/>
+      <c r="I118" s="135"/>
+      <c r="J118" s="135"/>
+      <c r="K118" s="135"/>
+      <c r="L118" s="135"/>
+      <c r="M118" s="135"/>
+      <c r="N118" s="135"/>
+      <c r="O118" s="135"/>
+      <c r="P118" s="135"/>
+      <c r="Q118" s="135"/>
+      <c r="R118" s="135"/>
+      <c r="S118" s="135"/>
+      <c r="T118" s="135"/>
+      <c r="U118" s="135"/>
+      <c r="V118" s="135"/>
+      <c r="W118" s="135"/>
+      <c r="X118" s="135"/>
+      <c r="Y118" s="135"/>
+      <c r="Z118" s="135"/>
+      <c r="AA118" s="135"/>
+      <c r="AB118" s="135"/>
+      <c r="AC118" s="135"/>
+      <c r="AD118" s="135"/>
+      <c r="AE118" s="135"/>
+      <c r="AF118" s="135"/>
+      <c r="AG118" s="135"/>
+      <c r="AH118" s="135"/>
+      <c r="AI118" s="135"/>
+      <c r="AJ118" s="135"/>
+      <c r="AK118" s="135"/>
+      <c r="AL118" s="136"/>
+      <c r="AM118" s="137"/>
+      <c r="AN118" s="138">
+        <f>SUM(G118:AL118)</f>
+        <v>0</v>
+      </c>
+      <c r="AO118" s="139"/>
+    </row>
+    <row r="119" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B119" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" s="141"/>
+      <c r="D119" s="142"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="144"/>
+      <c r="G119" s="145"/>
+      <c r="H119" s="146"/>
+      <c r="I119" s="146"/>
+      <c r="J119" s="146"/>
+      <c r="K119" s="146"/>
+      <c r="L119" s="146"/>
+      <c r="M119" s="146"/>
+      <c r="N119" s="146"/>
+      <c r="O119" s="146"/>
+      <c r="P119" s="146"/>
+      <c r="Q119" s="146"/>
+      <c r="R119" s="146"/>
+      <c r="S119" s="146"/>
+      <c r="T119" s="146"/>
+      <c r="U119" s="146"/>
+      <c r="V119" s="146"/>
+      <c r="W119" s="146"/>
+      <c r="X119" s="146"/>
+      <c r="Y119" s="146"/>
+      <c r="Z119" s="146"/>
+      <c r="AA119" s="146"/>
+      <c r="AB119" s="146"/>
+      <c r="AC119" s="146"/>
+      <c r="AD119" s="146"/>
+      <c r="AE119" s="146"/>
+      <c r="AF119" s="146"/>
+      <c r="AG119" s="146"/>
+      <c r="AH119" s="146"/>
+      <c r="AI119" s="146"/>
+      <c r="AJ119" s="146"/>
+      <c r="AK119" s="146"/>
+      <c r="AL119" s="147"/>
+      <c r="AM119" s="148"/>
+      <c r="AN119" s="149">
+        <f>SUM(H119:AL119)</f>
+        <v>0</v>
+      </c>
+      <c r="AO119" s="150"/>
+    </row>
+    <row r="120" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B120" s="151" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="152"/>
+      <c r="D120" s="153"/>
+      <c r="E120" s="154"/>
+      <c r="F120" s="155"/>
+      <c r="G120" s="156"/>
+      <c r="H120" s="157"/>
+      <c r="I120" s="157"/>
+      <c r="J120" s="157"/>
+      <c r="K120" s="157"/>
+      <c r="L120" s="157"/>
+      <c r="M120" s="157"/>
+      <c r="N120" s="157"/>
+      <c r="O120" s="157"/>
+      <c r="P120" s="157"/>
+      <c r="Q120" s="157"/>
+      <c r="R120" s="157"/>
+      <c r="S120" s="157"/>
+      <c r="T120" s="157"/>
+      <c r="U120" s="157"/>
+      <c r="V120" s="157"/>
+      <c r="W120" s="157"/>
+      <c r="X120" s="157"/>
+      <c r="Y120" s="157"/>
+      <c r="Z120" s="157"/>
+      <c r="AA120" s="157"/>
+      <c r="AB120" s="157"/>
+      <c r="AC120" s="157"/>
+      <c r="AD120" s="157"/>
+      <c r="AE120" s="157"/>
+      <c r="AF120" s="157"/>
+      <c r="AG120" s="157"/>
+      <c r="AH120" s="157"/>
+      <c r="AI120" s="157"/>
+      <c r="AJ120" s="157"/>
+      <c r="AK120" s="157"/>
+      <c r="AL120" s="158"/>
+      <c r="AM120" s="68"/>
+      <c r="AN120" s="159">
+        <f>SUM(H120:AL120)</f>
+        <v>0</v>
+      </c>
+      <c r="AO120" s="160"/>
+    </row>
+    <row r="121" spans="2:43" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="161" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" s="162"/>
+      <c r="D121" s="163"/>
+      <c r="E121" s="164"/>
+      <c r="F121" s="165"/>
+      <c r="G121" s="166"/>
+      <c r="H121" s="167"/>
+      <c r="I121" s="167"/>
+      <c r="J121" s="167"/>
+      <c r="K121" s="167"/>
+      <c r="L121" s="167"/>
+      <c r="M121" s="167"/>
+      <c r="N121" s="167"/>
+      <c r="O121" s="167"/>
+      <c r="P121" s="167"/>
+      <c r="Q121" s="167"/>
+      <c r="R121" s="167"/>
+      <c r="S121" s="167"/>
+      <c r="T121" s="167"/>
+      <c r="U121" s="167"/>
+      <c r="V121" s="167"/>
+      <c r="W121" s="167"/>
+      <c r="X121" s="167"/>
+      <c r="Y121" s="167"/>
+      <c r="Z121" s="167"/>
+      <c r="AA121" s="167"/>
+      <c r="AB121" s="167"/>
+      <c r="AC121" s="167"/>
+      <c r="AD121" s="167"/>
+      <c r="AE121" s="167"/>
+      <c r="AF121" s="167"/>
+      <c r="AG121" s="167"/>
+      <c r="AH121" s="167"/>
+      <c r="AI121" s="167"/>
+      <c r="AJ121" s="167"/>
+      <c r="AK121" s="167"/>
+      <c r="AL121" s="168"/>
+      <c r="AM121" s="169"/>
+      <c r="AN121" s="170">
+        <f>SUM(H121:AL121)</f>
+        <v>0</v>
+      </c>
+      <c r="AO121" s="171"/>
+    </row>
   </sheetData>
   <mergeCells count="37">
     <mergeCell ref="B3:F3"/>
@@ -12073,12 +12673,8 @@
     <mergeCell ref="B10:C21"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B58:C69"/>
-    <mergeCell ref="B94:C105"/>
     <mergeCell ref="B22:C33"/>
     <mergeCell ref="B34:C45"/>
-    <mergeCell ref="D58:E69"/>
-    <mergeCell ref="F58:F69"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="D10:E21"/>
     <mergeCell ref="F10:F21"/>
@@ -12088,211 +12684,223 @@
     <mergeCell ref="F22:F33"/>
     <mergeCell ref="D34:E45"/>
     <mergeCell ref="F34:F45"/>
-    <mergeCell ref="D82:E93"/>
-    <mergeCell ref="D94:E105"/>
-    <mergeCell ref="F82:F93"/>
     <mergeCell ref="B70:C81"/>
     <mergeCell ref="D70:E81"/>
     <mergeCell ref="F70:F81"/>
     <mergeCell ref="B82:C93"/>
-    <mergeCell ref="F94:F105"/>
+    <mergeCell ref="F58:F69"/>
+    <mergeCell ref="B58:C69"/>
+    <mergeCell ref="D58:E69"/>
+    <mergeCell ref="D82:E93"/>
     <mergeCell ref="B106:C117"/>
     <mergeCell ref="D106:E117"/>
     <mergeCell ref="F106:F117"/>
+    <mergeCell ref="F82:F93"/>
+    <mergeCell ref="B94:C105"/>
+    <mergeCell ref="D94:E105"/>
+    <mergeCell ref="F94:F105"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:AL8 AM8:AM9">
-    <cfRule type="cellIs" dxfId="184" priority="266" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="268" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="269" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10:AM11">
-    <cfRule type="cellIs" dxfId="182" priority="268" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="270" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="269" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="271" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:AL9 H106:AL117">
-    <cfRule type="expression" dxfId="180" priority="273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="275" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="276" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM106:AM107">
-    <cfRule type="cellIs" dxfId="178" priority="257" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="259" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="258" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="260" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM22:AM23">
-    <cfRule type="cellIs" dxfId="176" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="248" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="247" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="249" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM34:AM35">
-    <cfRule type="cellIs" dxfId="174" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="239" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="238" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="240" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM46:AM47">
-    <cfRule type="cellIs" dxfId="172" priority="228" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="230" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="229" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="231" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM58:AM59">
-    <cfRule type="cellIs" dxfId="170" priority="219" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="221" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="220" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="222" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM70:AM71">
-    <cfRule type="cellIs" dxfId="168" priority="210" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="212" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="211" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="213" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM82:AM83">
-    <cfRule type="cellIs" dxfId="166" priority="201" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="203" stopIfTrue="1" operator="equal">
       <formula>"La"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="202" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="204" stopIfTrue="1" operator="equal">
       <formula>"Su"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94:AL105">
-    <cfRule type="expression" dxfId="164" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="201" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="202" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:AL21">
-    <cfRule type="expression" dxfId="162" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="199" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="200" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:AL33 P23:P28 AB22:AC32 AF22:AG32 AI22:AJ32 AL22:AL32 S23:S28">
-    <cfRule type="expression" dxfId="160" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="197" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="198" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:AL45 H34:M44 Y34:AD44 AH34:AL44 O34:V44">
-    <cfRule type="expression" dxfId="158" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="195" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="196" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:AL57">
-    <cfRule type="expression" dxfId="156" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="193" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="194" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:AL69 H58 H59:Q67 S58:X67 AA58:AL67">
-    <cfRule type="expression" dxfId="154" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="191" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="192" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81:AL81 H70:Q80 S70:X80 AA70:AL77 AA79:AL80 AA78:AE78 AG78:AL78">
-    <cfRule type="expression" dxfId="152" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="189" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="190" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82:AL93">
-    <cfRule type="expression" dxfId="150" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="187" stopIfTrue="1">
       <formula>H$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="188" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L32">
-    <cfRule type="expression" dxfId="145" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="175" stopIfTrue="1">
       <formula>L$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="176" stopIfTrue="1">
       <formula>L$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M32">
-    <cfRule type="expression" dxfId="143" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="173" stopIfTrue="1">
       <formula>M$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="174" stopIfTrue="1">
       <formula>M$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="expression" dxfId="141" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="171" stopIfTrue="1">
       <formula>P$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="172" stopIfTrue="1">
       <formula>P$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22">
-    <cfRule type="expression" dxfId="139" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="167" stopIfTrue="1">
       <formula>S$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="168" stopIfTrue="1">
       <formula>S$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:P32">
-    <cfRule type="expression" dxfId="137" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="165" stopIfTrue="1">
       <formula>P$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="166" stopIfTrue="1">
       <formula>P$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29:S32">
-    <cfRule type="expression" dxfId="135" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="161" stopIfTrue="1">
       <formula>S$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="162" stopIfTrue="1">
       <formula>S$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z23:Z28">
+    <cfRule type="expression" dxfId="135" priority="141" stopIfTrue="1">
+      <formula>Z$7=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="142" stopIfTrue="1">
+      <formula>Z$5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22">
     <cfRule type="expression" dxfId="133" priority="139" stopIfTrue="1">
       <formula>Z$7=TODAY()</formula>
     </cfRule>
@@ -12300,7 +12908,7 @@
       <formula>Z$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z22">
+  <conditionalFormatting sqref="Z29:Z32">
     <cfRule type="expression" dxfId="131" priority="137" stopIfTrue="1">
       <formula>Z$7=TODAY()</formula>
     </cfRule>
@@ -12308,15 +12916,15 @@
       <formula>Z$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z29:Z32">
+  <conditionalFormatting sqref="AA23:AA28">
     <cfRule type="expression" dxfId="129" priority="135" stopIfTrue="1">
-      <formula>Z$7=TODAY()</formula>
+      <formula>AA$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="128" priority="136" stopIfTrue="1">
-      <formula>Z$5=1</formula>
+      <formula>AA$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA23:AA28">
+  <conditionalFormatting sqref="AA22">
     <cfRule type="expression" dxfId="127" priority="133" stopIfTrue="1">
       <formula>AA$7=TODAY()</formula>
     </cfRule>
@@ -12324,7 +12932,7 @@
       <formula>AA$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22">
+  <conditionalFormatting sqref="AA29:AA32">
     <cfRule type="expression" dxfId="125" priority="131" stopIfTrue="1">
       <formula>AA$7=TODAY()</formula>
     </cfRule>
@@ -12332,15 +12940,15 @@
       <formula>AA$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA29:AA32">
+  <conditionalFormatting sqref="T23:T28">
     <cfRule type="expression" dxfId="123" priority="129" stopIfTrue="1">
-      <formula>AA$7=TODAY()</formula>
+      <formula>T$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="122" priority="130" stopIfTrue="1">
-      <formula>AA$5=1</formula>
+      <formula>T$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T23:T28">
+  <conditionalFormatting sqref="T22">
     <cfRule type="expression" dxfId="121" priority="127" stopIfTrue="1">
       <formula>T$7=TODAY()</formula>
     </cfRule>
@@ -12348,7 +12956,7 @@
       <formula>T$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22">
+  <conditionalFormatting sqref="T29:T32">
     <cfRule type="expression" dxfId="119" priority="125" stopIfTrue="1">
       <formula>T$7=TODAY()</formula>
     </cfRule>
@@ -12356,23 +12964,23 @@
       <formula>T$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T29:T32">
+  <conditionalFormatting sqref="I58:Q58">
     <cfRule type="expression" dxfId="117" priority="123" stopIfTrue="1">
-      <formula>T$7=TODAY()</formula>
+      <formula>I$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="116" priority="124" stopIfTrue="1">
-      <formula>T$5=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:Q58">
-    <cfRule type="expression" dxfId="115" priority="121" stopIfTrue="1">
-      <formula>I$7=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="122" stopIfTrue="1">
       <formula>I$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35:X40">
+    <cfRule type="expression" dxfId="115" priority="121" stopIfTrue="1">
+      <formula>X$7=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="122" stopIfTrue="1">
+      <formula>X$5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34">
     <cfRule type="expression" dxfId="113" priority="119" stopIfTrue="1">
       <formula>X$7=TODAY()</formula>
     </cfRule>
@@ -12380,7 +12988,7 @@
       <formula>X$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34">
+  <conditionalFormatting sqref="X41:X44">
     <cfRule type="expression" dxfId="111" priority="117" stopIfTrue="1">
       <formula>X$7=TODAY()</formula>
     </cfRule>
@@ -12388,15 +12996,15 @@
       <formula>X$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X41:X44">
-    <cfRule type="expression" dxfId="109" priority="115" stopIfTrue="1">
-      <formula>X$7=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="116" stopIfTrue="1">
-      <formula>X$5=1</formula>
+  <conditionalFormatting sqref="W35:W40">
+    <cfRule type="expression" dxfId="109" priority="109" stopIfTrue="1">
+      <formula>W$7=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="110" stopIfTrue="1">
+      <formula>W$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35:W40">
+  <conditionalFormatting sqref="W34">
     <cfRule type="expression" dxfId="107" priority="107" stopIfTrue="1">
       <formula>W$7=TODAY()</formula>
     </cfRule>
@@ -12404,7 +13012,7 @@
       <formula>W$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W34">
+  <conditionalFormatting sqref="W41:W44">
     <cfRule type="expression" dxfId="105" priority="105" stopIfTrue="1">
       <formula>W$7=TODAY()</formula>
     </cfRule>
@@ -12412,15 +13020,15 @@
       <formula>W$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W41:W44">
+  <conditionalFormatting sqref="AD23:AD28">
     <cfRule type="expression" dxfId="103" priority="103" stopIfTrue="1">
-      <formula>W$7=TODAY()</formula>
+      <formula>AD$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="102" priority="104" stopIfTrue="1">
-      <formula>W$5=1</formula>
+      <formula>AD$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD23:AD28">
+  <conditionalFormatting sqref="AD22">
     <cfRule type="expression" dxfId="101" priority="101" stopIfTrue="1">
       <formula>AD$7=TODAY()</formula>
     </cfRule>
@@ -12428,7 +13036,7 @@
       <formula>AD$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD22">
+  <conditionalFormatting sqref="AD29:AD32">
     <cfRule type="expression" dxfId="99" priority="99" stopIfTrue="1">
       <formula>AD$7=TODAY()</formula>
     </cfRule>
@@ -12436,15 +13044,15 @@
       <formula>AD$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD29:AD32">
+  <conditionalFormatting sqref="AE35:AE40">
     <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
-      <formula>AD$7=TODAY()</formula>
+      <formula>AE$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="96" priority="98" stopIfTrue="1">
-      <formula>AD$5=1</formula>
+      <formula>AE$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE35:AE40">
+  <conditionalFormatting sqref="AE34">
     <cfRule type="expression" dxfId="95" priority="95" stopIfTrue="1">
       <formula>AE$7=TODAY()</formula>
     </cfRule>
@@ -12452,7 +13060,7 @@
       <formula>AE$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
+  <conditionalFormatting sqref="AE41:AE44">
     <cfRule type="expression" dxfId="93" priority="93" stopIfTrue="1">
       <formula>AE$7=TODAY()</formula>
     </cfRule>
@@ -12460,15 +13068,15 @@
       <formula>AE$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE41:AE44">
+  <conditionalFormatting sqref="AF35:AF40">
     <cfRule type="expression" dxfId="91" priority="91" stopIfTrue="1">
-      <formula>AE$7=TODAY()</formula>
+      <formula>AF$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="90" priority="92" stopIfTrue="1">
-      <formula>AE$5=1</formula>
+      <formula>AF$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF35:AF40">
+  <conditionalFormatting sqref="AF34">
     <cfRule type="expression" dxfId="89" priority="89" stopIfTrue="1">
       <formula>AF$7=TODAY()</formula>
     </cfRule>
@@ -12476,7 +13084,7 @@
       <formula>AF$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
+  <conditionalFormatting sqref="AF41:AF44">
     <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
       <formula>AF$7=TODAY()</formula>
     </cfRule>
@@ -12484,15 +13092,15 @@
       <formula>AF$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF41:AF44">
+  <conditionalFormatting sqref="AH23:AH28">
     <cfRule type="expression" dxfId="85" priority="85" stopIfTrue="1">
-      <formula>AF$7=TODAY()</formula>
+      <formula>AH$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="84" priority="86" stopIfTrue="1">
-      <formula>AF$5=1</formula>
+      <formula>AH$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH23:AH28">
+  <conditionalFormatting sqref="AH22">
     <cfRule type="expression" dxfId="83" priority="83" stopIfTrue="1">
       <formula>AH$7=TODAY()</formula>
     </cfRule>
@@ -12500,7 +13108,7 @@
       <formula>AH$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
+  <conditionalFormatting sqref="AH29:AH32">
     <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
       <formula>AH$7=TODAY()</formula>
     </cfRule>
@@ -12508,15 +13116,15 @@
       <formula>AH$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH29:AH32">
+  <conditionalFormatting sqref="AG35:AG40">
     <cfRule type="expression" dxfId="79" priority="79" stopIfTrue="1">
-      <formula>AH$7=TODAY()</formula>
+      <formula>AG$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="78" priority="80" stopIfTrue="1">
-      <formula>AH$5=1</formula>
+      <formula>AG$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG35:AG40">
+  <conditionalFormatting sqref="AG34">
     <cfRule type="expression" dxfId="77" priority="77" stopIfTrue="1">
       <formula>AG$7=TODAY()</formula>
     </cfRule>
@@ -12524,7 +13132,7 @@
       <formula>AG$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
+  <conditionalFormatting sqref="AG41:AG44">
     <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
       <formula>AG$7=TODAY()</formula>
     </cfRule>
@@ -12532,15 +13140,15 @@
       <formula>AG$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG41:AG44">
+  <conditionalFormatting sqref="AE23:AE28">
     <cfRule type="expression" dxfId="73" priority="73" stopIfTrue="1">
-      <formula>AG$7=TODAY()</formula>
+      <formula>AE$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="72" priority="74" stopIfTrue="1">
-      <formula>AG$5=1</formula>
+      <formula>AE$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE23:AE28">
+  <conditionalFormatting sqref="AE22">
     <cfRule type="expression" dxfId="71" priority="71" stopIfTrue="1">
       <formula>AE$7=TODAY()</formula>
     </cfRule>
@@ -12548,7 +13156,7 @@
       <formula>AE$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
+  <conditionalFormatting sqref="AE29:AE32">
     <cfRule type="expression" dxfId="69" priority="69" stopIfTrue="1">
       <formula>AE$7=TODAY()</formula>
     </cfRule>
@@ -12556,15 +13164,15 @@
       <formula>AE$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE29:AE32">
+  <conditionalFormatting sqref="AK23:AK28">
     <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
-      <formula>AE$7=TODAY()</formula>
+      <formula>AK$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
-      <formula>AE$5=1</formula>
+      <formula>AK$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK23:AK28">
+  <conditionalFormatting sqref="AK22">
     <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
       <formula>AK$7=TODAY()</formula>
     </cfRule>
@@ -12572,7 +13180,7 @@
       <formula>AK$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK22">
+  <conditionalFormatting sqref="AK29:AK32">
     <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>AK$7=TODAY()</formula>
     </cfRule>
@@ -12580,47 +13188,47 @@
       <formula>AK$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK29:AK32">
+  <conditionalFormatting sqref="H22:H32">
     <cfRule type="expression" dxfId="61" priority="61" stopIfTrue="1">
-      <formula>AK$7=TODAY()</formula>
+      <formula>H$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="60" priority="62" stopIfTrue="1">
-      <formula>AK$5=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H32">
-    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
-      <formula>H$7=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="60" stopIfTrue="1">
       <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I32">
-    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
       <formula>I$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="60" stopIfTrue="1">
       <formula>I$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J32">
-    <cfRule type="expression" dxfId="55" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="57" stopIfTrue="1">
       <formula>J$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="58" stopIfTrue="1">
       <formula>J$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K32">
-    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="55" stopIfTrue="1">
       <formula>K$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
       <formula>K$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N32">
+    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
+      <formula>N$7=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+      <formula>N$5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:N44">
     <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
       <formula>N$7=TODAY()</formula>
     </cfRule>
@@ -12628,95 +13236,95 @@
       <formula>N$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N44">
+  <conditionalFormatting sqref="O22:O32">
     <cfRule type="expression" dxfId="49" priority="49" stopIfTrue="1">
-      <formula>N$7=TODAY()</formula>
+      <formula>O$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
-      <formula>N$5=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O22:O32">
-    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
-      <formula>O$7=TODAY()</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48" stopIfTrue="1">
       <formula>O$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:Q32">
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
       <formula>Q$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="48" stopIfTrue="1">
       <formula>Q$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:R32">
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
       <formula>R$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="46" stopIfTrue="1">
       <formula>R$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U32">
-    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
       <formula>U$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
       <formula>U$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22:V32">
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
       <formula>V$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
       <formula>V$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:W32">
-    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
       <formula>W$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>W$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23:X32">
-    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
       <formula>X$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>X$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23:Y32">
-    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
       <formula>Y$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
       <formula>Y$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="33" stopIfTrue="1">
       <formula>X$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>X$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y22">
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
       <formula>Y$7=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>Y$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R71:R80">
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+      <formula>R$7=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+      <formula>R$5=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70">
     <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>R$7=TODAY()</formula>
     </cfRule>
@@ -12724,7 +13332,7 @@
       <formula>R$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R70">
+  <conditionalFormatting sqref="R59:R67">
     <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
       <formula>R$7=TODAY()</formula>
     </cfRule>
@@ -12732,7 +13340,7 @@
       <formula>R$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R59:R67">
+  <conditionalFormatting sqref="R58">
     <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>R$7=TODAY()</formula>
     </cfRule>
@@ -12740,15 +13348,15 @@
       <formula>R$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R58">
+  <conditionalFormatting sqref="Y59:Y67">
     <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
-      <formula>R$7=TODAY()</formula>
+      <formula>Y$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>R$5=1</formula>
+      <formula>Y$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y59:Y67">
+  <conditionalFormatting sqref="Y58">
     <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>Y$7=TODAY()</formula>
     </cfRule>
@@ -12756,15 +13364,15 @@
       <formula>Y$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y58">
+  <conditionalFormatting sqref="Z59:Z67">
     <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
-      <formula>Y$7=TODAY()</formula>
+      <formula>Z$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
-      <formula>Y$5=1</formula>
+      <formula>Z$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z59:Z67">
+  <conditionalFormatting sqref="Z58">
     <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>Z$7=TODAY()</formula>
     </cfRule>
@@ -12772,15 +13380,15 @@
       <formula>Z$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z58">
+  <conditionalFormatting sqref="Y80:Z80">
     <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
-      <formula>Z$7=TODAY()</formula>
+      <formula>Y$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
-      <formula>Z$5=1</formula>
+      <formula>Y$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y80:Z80">
+  <conditionalFormatting sqref="Y71:Y79">
     <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>Y$7=TODAY()</formula>
     </cfRule>
@@ -12788,7 +13396,7 @@
       <formula>Y$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y71:Y79">
+  <conditionalFormatting sqref="Y70">
     <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>Y$7=TODAY()</formula>
     </cfRule>
@@ -12796,15 +13404,15 @@
       <formula>Y$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y70">
+  <conditionalFormatting sqref="Z71:Z79">
     <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
-      <formula>Y$7=TODAY()</formula>
+      <formula>Z$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>Y$5=1</formula>
+      <formula>Z$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z71:Z79">
+  <conditionalFormatting sqref="Z70">
     <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>Z$7=TODAY()</formula>
     </cfRule>
@@ -12812,20 +13420,20 @@
       <formula>Z$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z70">
+  <conditionalFormatting sqref="AF78">
     <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
-      <formula>Z$7=TODAY()</formula>
+      <formula>AF$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>Z$5=1</formula>
+      <formula>AF$5=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF78">
+  <conditionalFormatting sqref="H118:AL121">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>AF$7=TODAY()</formula>
+      <formula>H$7=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AF$5=1</formula>
+      <formula>H$5=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.73636363636363633" right="0.11805555555555557" top="0.35795454545454547" bottom="0.51180555555555562" header="0.51180555555555562" footer="0.51180555555555562"/>
